--- a/supp_data/supplementary_appendix_3.xlsx
+++ b/supp_data/supplementary_appendix_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaosha/Documents/GitHub/CholeraGenomics-AfricaSE/supp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1526B5AA-A373-9F4E-8DDA-0CF0374EC23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C8681-07F8-2F43-8E24-13B2C32BF37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{AE4C6099-E6D7-A147-9233-06B9F0D292BF}"/>
+    <workbookView xWindow="19300" yWindow="4740" windowWidth="28040" windowHeight="17440" xr2:uid="{AE4C6099-E6D7-A147-9233-06B9F0D292BF}"/>
   </bookViews>
   <sheets>
     <sheet name="supp_data_2_annotation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12378" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="2036">
   <si>
     <t>taxa</t>
   </si>
@@ -6990,7 +6990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2ED2D9-C40A-8549-BAFE-707B84C45B8D}">
   <dimension ref="A1:M1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I408" sqref="I408"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -23004,9 +23006,6 @@
       <c r="G402">
         <v>3</v>
       </c>
-      <c r="H402" t="s">
-        <v>442</v>
-      </c>
       <c r="I402" t="s">
         <v>538</v>
       </c>

--- a/supp_data/supplementary_appendix_3.xlsx
+++ b/supp_data/supplementary_appendix_3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaosha/Documents/GitHub/CholeraGenomics-AfricaSE/supp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C8681-07F8-2F43-8E24-13B2C32BF37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B8525-7520-EB46-90F1-F2732CFB6433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19300" yWindow="4740" windowWidth="28040" windowHeight="17440" xr2:uid="{AE4C6099-E6D7-A147-9233-06B9F0D292BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="supp_data_2_annotation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -6990,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2ED2D9-C40A-8549-BAFE-707B84C45B8D}">
   <dimension ref="A1:M1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I408" sqref="I408"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
